--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -461,7 +461,11 @@
           <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「と畜・食鳥処理場におけるHACCP検証方法の確立と食鳥処理工程の高度衛生管理に関する研究」&lt;br&gt;分担研究報告書[「と畜場におけるリステリア属菌の汚染実態とリスク管理に関する研究」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/9.%20%E5%88%86%E6%8B%85%E7%A0%94%E7%A9%B6%E2%91%A3%20p64-69.pdf)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -559,7 +563,11 @@
           <t>**福岡市保険環境研究所 / 九州大学** &lt;br&gt; [辛子明太子における _Listeria monocytogenes_ の汚染実態と食品添加物による本菌の制御モデル実験](https://www.jstage.jst.go.jp/article/jsfm/24/3/24_3_122/_pdf)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -572,7 +580,11 @@
           <t>[_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1943/617283.pdf)&lt;br&gt;(宮城県保健環境センター年報　第25号 p45~48)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -585,7 +597,11 @@
           <t>**東京海洋大学** &lt;br&gt; [Risk of _Listeria monocytogenes_ Contamination of Raw Ready-To-Eat Seafood Products Available at Retail Outlets in Japan](https://journals.asm.org/doi/full/10.1128/aem.01456-09)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -598,7 +614,11 @@
           <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -611,7 +631,11 @@
           <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び食肉のリステリア汚染状況と迅速な菌種同定](https://www.pref.okayama.jp/uploaded/life/49801_174922_misc.pdf)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -624,7 +648,11 @@
           <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び調理用食肉のリステリア汚染状況](https://www.pref.okayama.jp/uploaded/life/49802_174943_misc.pdf)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -688,7 +716,11 @@
           <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -701,7 +733,11 @@
           <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -714,7 +750,11 @@
           <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -727,7 +767,11 @@
           <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -740,7 +784,11 @@
           <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -753,7 +801,11 @@
           <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,29 +674,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**福島県食肉衛生検査所** &lt;br&gt; [食鳥処理場における _Staphylococcus aureus_ の汚染状況と分離株の性状](https://www.jstage.jst.go.jp/article/jvma1951/57/7/57_7_460/_pdf)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
+          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
+          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1999-2000</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1998-2001</t>
+          <t>1999-2000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
+          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,15 +793,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>1998-2001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>1988-2004</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,29 +674,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>**福島県食肉衛生検査所** &lt;br&gt; [食鳥処理場における _Staphylococcus aureus_ の汚染状況と分離株の性状](https://www.jstage.jst.go.jp/article/jvma1951/57/7/57_7_460/_pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
+          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>1999-2000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
+          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1999-2000</t>
+          <t>1998-2001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
+          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,32 +793,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1998-2001</t>
+          <t>1988-2004</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1988-2004</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,29 +572,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2006-2008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1943/617283.pdf)&lt;br&gt;(宮城県保健環境センター年報　第25号 p45~48)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)（[訂正](https://www.jstage.jst.go.jp/article/jvms/75/2/75_11-0262e/_article/-char/ja)） &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2004-2008</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Risk of _Listeria monocytogenes_ Contamination of Raw Ready-To-Eat Seafood Products Available at Retail Outlets in Japan](https://journals.asm.org/doi/full/10.1128/aem.01456-09)</t>
+          <t>[_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1943/617283.pdf)&lt;br&gt;(宮城県保健環境センター年報　第25号 p45~48)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004-2008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
+          <t>**東京海洋大学** &lt;br&gt; [Risk of _Listeria monocytogenes_ Contamination of Raw Ready-To-Eat Seafood Products Available at Retail Outlets in Japan](https://journals.asm.org/doi/full/10.1128/aem.01456-09)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び食肉のリステリア汚染状況と迅速な菌種同定](https://www.pref.okayama.jp/uploaded/life/49801_174922_misc.pdf)</t>
+          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,12 +640,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び調理用食肉のリステリア汚染状況](https://www.pref.okayama.jp/uploaded/life/49802_174943_misc.pdf)</t>
+          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び食肉のリステリア汚染状況と迅速な菌種同定](https://www.pref.okayama.jp/uploaded/life/49801_174922_misc.pdf)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,29 +657,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態調査について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt; (埼玉県衛生研究所報 2005, vol. 39, p.151-153)</t>
+          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び調理用食肉のリステリア汚染状況](https://www.pref.okayama.jp/uploaded/life/49802_174943_misc.pdf)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態調査について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt; (埼玉県衛生研究所報 2005, vol. 39, p.151-153)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,12 +691,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
+          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
+          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1999-2000</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1998-2001</t>
+          <t>1999-2000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
+          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,15 +793,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>1998-2001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>1988-2004</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1943/617283.pdf)&lt;br&gt;(宮城県保健環境センター年報　第25号 p45~48)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1943/617283.pdf)&lt;br&gt;(宮城県保健環境センター年報　第25号 p45~48)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>1999-2000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
+          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1999-2000</t>
+          <t>1998-2001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
+          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,32 +793,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1998-2001</t>
+          <t>1988-2004</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1988-2004</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,49 +759,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1999-2000</t>
+          <t>1988-2004</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**大阪市立大学 / 大阪市立環境科学研究所** &lt;br&gt; [_Listeria monocytogenes_ isolated from cold-smoked fish products in Osaka City, Japan](https://www.sciencedirect.com/science/article/pii/S0168160504001126?casa_token=z7HWFC6UP0YAAAAA:plCycZI9Rv_DcFiaRJbgrtIuRKTH_Qx5QOWmDfTQt8wcZu_xUZlgJeW3S73alL6d5L2LPCPvGXk)</t>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1998-2001</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>**日本水産（株）食品分析センター** &lt;br&gt; [わが国における Ready-to-Eat 水産食品の _Listeria monocytogenes_ 汚染](https://www.jstage.jst.go.jp/article/jsfm1994/20/2/20_2_63/_pdf/-char/ja)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1988-2004</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立各回図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/tables/table_Listeria.xlsx
+++ b/tables/table_Listeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び食肉のリステリア汚染状況と迅速な菌種同定](https://www.pref.okayama.jp/uploaded/life/49801_174922_misc.pdf)</t>
+          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉からのカンピロバクターの定量および定性検査法の有効性評価](https://www.city.hiroshima.lg.jp/_res/projects/default_project/_page_/001/023/132/57088.pdf) &lt;br&gt;（広島市衛生研究所年報, 25, pp.44-46, 2006）</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び調理用食肉のリステリア汚染状況](https://www.pref.okayama.jp/uploaded/life/49802_174943_misc.pdf)</t>
+          <t>**富山県衛生研究所** &lt;br&gt; [富山県におけるカンピロバクター分離状況(2005年)](https://www.pref.toyama.jp/documents/13568/nenpou29h17_1.pdf) &lt;br&gt;（富山県衛生研究所年報, 29 (2006), pp.174-177）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,80 +674,80 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態調査について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt; (埼玉県衛生研究所報 2005, vol. 39, p.151-153)</t>
+          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び食肉のリステリア汚染状況と迅速な菌種同定](https://www.pref.okayama.jp/uploaded/life/49801_174922_misc.pdf)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2004-2005</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [鶏肉からの効率的なカンピロバクターの分離の検討と分離菌の性状](https://www.pref.miyagi.jp/documents/1943/617297.pdf) &lt;br&gt;（宮城県保健環境センター年報, 第24号, pp.117~120,2006）</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**岡山県環境保健センター** &lt;br&gt; [動物を含めた環境中及び調理用食肉のリステリア汚染状況](https://www.pref.okayama.jp/uploaded/life/49802_174943_misc.pdf)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態調査について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt; (埼玉県衛生研究所報 2005, vol. 39, p.151-153)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
+          <t>**香川県環境保健研究センター** &lt;br&gt; [鶏肉における _Campylobacter_ および _Salmonella_ の汚染状況](https://www.pref.kagawa.lg.jp/documents/2480/s8cm2a170906165025_f23_1.pdf) &lt;br&gt;（香川県環境保健研究センター所報 第3号, 2004, pp.187-190）</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,15 +759,83 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2001-2002</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>**国立感染症研究所** &lt;br&gt; [食品由来のリステリア菌の健康被害に関する研究(総括研究報告書)](https://mhlw-grants.niph.go.jp/project/5920)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>**北海道大学** &lt;br&gt; [Occurrence of _Listeria monocytogenes_ in retail fish and processed seafood products in Japan](https://www.jstage.jst.go.jp/article/fishsci1994/66/6/66_6_1191/_pdf)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>1988-2004</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Overview of _Listeria monocytogenes_ contamination in Japan](https://www.sciencedirect.com/science/article/pii/S0168160503006275#BIB13) &lt;br&gt; 2000年以降のデータを登録予定</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>
